--- a/data/publications/orcid/export_to_manual/Akademia_Ignatianum_w_Krakowie_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Akademia_Ignatianum_w_Krakowie_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,627 +436,680 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Rafał Aleksandrowicz</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>http://orcid.org/0000-0003-4895-5415</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>A practical approach to individualisation of the learning process</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2020-04</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Hejnał Oświatowy</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Rafał_Aleksandrowicz_1</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>Rafał Aleksandrowicz</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>http://orcid.org/0000-0003-4895-5415</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t xml:space="preserve"> Book review: Scientific writing of students. </t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2020-02</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Hejnał Oświatowy</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Rafał_Aleksandrowicz_2</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>12</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>Adam Anczyk</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6906-3104</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>Pluralism of methods in religious studies: A swot analysis</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Anthropos</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Adam_Anczyk_10</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>13</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Adam Anczyk</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6906-3104</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t xml:space="preserve">The Sacred Texts Experiment : images of religious Others and their role in forming attitudes towards accepting Muslim refugees in Poland </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Studia Migracyjne - Przegląd Polonijny</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Adam_Anczyk_11</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>21</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Jacek Bielas</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-9771-4162</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t xml:space="preserve">The view from within the brain: Does neurofeedback close the gap? </t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Journal of Consciousness Studies</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jacek_Bielas_7</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>23</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Tomasz Grzegorek</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-8317-4158</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Czy jest jakiś pożytek ze studenckiej ankiety do ewaluacji zajęć?</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>2021-02</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Nauka</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Tomasz_Grzegorek_1</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>28</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Halina Grzymała-Moszczyńska</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2751-3204</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Pluralism of Methods in Religious Studies</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Anthropos</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Halina_Grzymała-Moszczyńska_5</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>29</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Halina Grzymała-Moszczyńska</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2751-3204</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Psychological and educational counseling centers in the face of children and adolescents immigrating back to Poland</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Psychologia Wychowawcza</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Halina_Grzymała-Moszczyńska_6</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>30</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Halina Grzymała-Moszczyńska</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0003-2751-3204</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>The sacred text experiment : images of religious others and their role in forming attitudes towards accepting Muslim refugees in Poland</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Przegląd Migracyjny</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Halina_Grzymała-Moszczyńska_7</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>31</v>
+      </c>
+      <c r="B11" t="inlineStr">
         <is>
           <t>Ewa Jaglarz</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8754-8770</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Aspiracje i plany życiowe młodzieży gimnazjum integracyjnego</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Niepełnosprawność i Rehabilitacja. nr 4</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Ewa_Jaglarz_1</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>32</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Ewa Jaglarz</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8754-8770</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Jakościowa charakterystyka stylu zarządzania miejscem pracy ze względu na warunki sprzyjające zatrudnianiu osób z niepełnosprawnością</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Niepełnosprawność. Dyskursy pedagogiki specjalnej</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Ewa_Jaglarz_2</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>33</v>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>Ewa Jaglarz</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-8754-8770</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Praca i jej znaczenie dla osób z niepełnosprawnością. Prawny i społeczny wymiar funkcjonowania zawodowego osób z niepełnosprawnością</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Studia Socialia Cracoviensia 9(2017) nr 2 (17),</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Ewa_Jaglarz_3</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>36</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>Kamil Jezierski</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-6935-4710</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t xml:space="preserve">Sprawozdanie z VII Konferencji Psychologii Narracyjnej: „Narracja i Rozwój”, 27-29 września 2018 r., Kazimierz Dolny </t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Psychologia Rozwojowa</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Kamil_Jezierski_3</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>40</v>
+      </c>
+      <c r="B15" t="inlineStr">
         <is>
           <t>Krzysztof Kwapis</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0359-6386</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>The quality of life , meaning in life , positive orientation to life and gratitude of Catholic seminarians in Poland : A comparative analysis</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Archive for the Psychology of Religion</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Krzysztof_Kwapis_2</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>42</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>Krzysztof Kwapis</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-0359-6386</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>The Development and Psychometric Properties of the Polish Version of the Self-Control Scale</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Annales Universitatis Mariae Curie-Skłodowska, Sectio J – Paedagogia-Psychologia</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Krzysztof_Kwapis_4</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>47</v>
+      </c>
+      <c r="B17" t="inlineStr">
         <is>
           <t>Łukasz Michalczyk</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0002-3174-0832</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>empty</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>The view from within the brain: Does neurofeedback close the gap?</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2017-01-01</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Journal of Consciousness Studies</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Łukasz_Michalczyk_5</t>
         </is>
